--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il16-Kcnj15.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il16-Kcnj15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.566789</v>
+        <v>4.343956666666666</v>
       </c>
       <c r="H2">
-        <v>19.700367</v>
+        <v>13.03187</v>
       </c>
       <c r="I2">
-        <v>0.3634074580963035</v>
+        <v>0.2551833209483726</v>
       </c>
       <c r="J2">
-        <v>0.3634074580963036</v>
+        <v>0.2551833209483726</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.370686333333333</v>
+        <v>2.613621</v>
       </c>
       <c r="N2">
-        <v>4.112059</v>
+        <v>7.840863</v>
       </c>
       <c r="O2">
-        <v>0.2746096501869182</v>
+        <v>0.4199754212870037</v>
       </c>
       <c r="P2">
-        <v>0.2746096501869182</v>
+        <v>0.4199754212870037</v>
       </c>
       <c r="Q2">
-        <v>9.001007936183667</v>
+        <v>11.35345636709</v>
       </c>
       <c r="R2">
-        <v>81.009071425653</v>
+        <v>102.18110730381</v>
       </c>
       <c r="S2">
-        <v>0.09979519494314304</v>
+        <v>0.1071707227207095</v>
       </c>
       <c r="T2">
-        <v>0.09979519494314308</v>
+        <v>0.1071707227207095</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.566789</v>
+        <v>4.343956666666666</v>
       </c>
       <c r="H3">
-        <v>19.700367</v>
+        <v>13.03187</v>
       </c>
       <c r="I3">
-        <v>0.3634074580963035</v>
+        <v>0.2551833209483726</v>
       </c>
       <c r="J3">
-        <v>0.3634074580963036</v>
+        <v>0.2551833209483726</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>10.290168</v>
       </c>
       <c r="O3">
-        <v>0.6871933099317445</v>
+        <v>0.551166069463788</v>
       </c>
       <c r="P3">
-        <v>0.6871933099317445</v>
+        <v>0.5511660694637879</v>
       </c>
       <c r="Q3">
-        <v>22.524454010184</v>
+        <v>14.90001462824</v>
       </c>
       <c r="R3">
-        <v>202.720086091656</v>
+        <v>134.10013165416</v>
       </c>
       <c r="S3">
-        <v>0.2497311739830806</v>
+        <v>0.1406483879998309</v>
       </c>
       <c r="T3">
-        <v>0.2497311739830806</v>
+        <v>0.1406483879998308</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.566789</v>
+        <v>4.343956666666666</v>
       </c>
       <c r="H4">
-        <v>19.700367</v>
+        <v>13.03187</v>
       </c>
       <c r="I4">
-        <v>0.3634074580963035</v>
+        <v>0.2551833209483726</v>
       </c>
       <c r="J4">
-        <v>0.3634074580963036</v>
+        <v>0.2551833209483726</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,27 +685,27 @@
         <v>0.538783</v>
       </c>
       <c r="O4">
-        <v>0.03598076077134553</v>
+        <v>0.02885850924920838</v>
       </c>
       <c r="P4">
-        <v>0.03598076077134554</v>
+        <v>0.02885850924920838</v>
       </c>
       <c r="Q4">
-        <v>1.179358092595667</v>
+        <v>0.7801500015788888</v>
       </c>
       <c r="R4">
-        <v>10.614222833361</v>
+        <v>7.02135001421</v>
       </c>
       <c r="S4">
-        <v>0.01307567681228587</v>
+        <v>0.007364210227832322</v>
       </c>
       <c r="T4">
-        <v>0.01307567681228588</v>
+        <v>0.007364210227832322</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.566789</v>
+        <v>6.440526333333334</v>
       </c>
       <c r="H5">
-        <v>19.700367</v>
+        <v>19.321579</v>
       </c>
       <c r="I5">
-        <v>0.3634074580963035</v>
+        <v>0.3783451411951115</v>
       </c>
       <c r="J5">
-        <v>0.3634074580963036</v>
+        <v>0.3783451411951115</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.01106233333333333</v>
+        <v>2.613621</v>
       </c>
       <c r="N5">
-        <v>0.033187</v>
+        <v>7.840863</v>
       </c>
       <c r="O5">
-        <v>0.002216279109991674</v>
+        <v>0.4199754212870037</v>
       </c>
       <c r="P5">
-        <v>0.002216279109991674</v>
+        <v>0.4199754212870037</v>
       </c>
       <c r="Q5">
-        <v>0.07264400884766667</v>
+        <v>16.833094875853</v>
       </c>
       <c r="R5">
-        <v>0.653796079629</v>
+        <v>151.497853882677</v>
       </c>
       <c r="S5">
-        <v>0.0008054123577940123</v>
+        <v>0.1588956600653078</v>
       </c>
       <c r="T5">
-        <v>0.0008054123577940124</v>
+        <v>0.1588956600653078</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>19.321579</v>
       </c>
       <c r="I6">
-        <v>0.3564200560729107</v>
+        <v>0.3783451411951115</v>
       </c>
       <c r="J6">
-        <v>0.3564200560729107</v>
+        <v>0.3783451411951115</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.370686333333333</v>
+        <v>3.430056</v>
       </c>
       <c r="N6">
-        <v>4.112059</v>
+        <v>10.290168</v>
       </c>
       <c r="O6">
-        <v>0.2746096501869182</v>
+        <v>0.551166069463788</v>
       </c>
       <c r="P6">
-        <v>0.2746096501869182</v>
+        <v>0.5511660694637879</v>
       </c>
       <c r="Q6">
-        <v>8.827941424573446</v>
+        <v>22.091365992808</v>
       </c>
       <c r="R6">
-        <v>79.451472821161</v>
+        <v>198.822293935272</v>
       </c>
       <c r="S6">
-        <v>0.09787638691778376</v>
+        <v>0.2085310043732315</v>
       </c>
       <c r="T6">
-        <v>0.09787638691778378</v>
+        <v>0.2085310043732314</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,45 +853,45 @@
         <v>19.321579</v>
       </c>
       <c r="I7">
-        <v>0.3564200560729107</v>
+        <v>0.3783451411951115</v>
       </c>
       <c r="J7">
-        <v>0.3564200560729107</v>
+        <v>0.3783451411951115</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>3.430056</v>
+        <v>0.1795943333333333</v>
       </c>
       <c r="N7">
-        <v>10.290168</v>
+        <v>0.538783</v>
       </c>
       <c r="O7">
-        <v>0.6871933099317445</v>
+        <v>0.02885850924920838</v>
       </c>
       <c r="P7">
-        <v>0.6871933099317445</v>
+        <v>0.02885850924920838</v>
       </c>
       <c r="Q7">
-        <v>22.091365992808</v>
+        <v>1.156682033150778</v>
       </c>
       <c r="R7">
-        <v>198.822293935272</v>
+        <v>10.410138298357</v>
       </c>
       <c r="S7">
-        <v>0.2449294780588015</v>
+        <v>0.01091847675657217</v>
       </c>
       <c r="T7">
-        <v>0.2449294780588015</v>
+        <v>0.01091847675657217</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.440526333333334</v>
+        <v>0.3495363333333334</v>
       </c>
       <c r="H8">
-        <v>19.321579</v>
+        <v>1.048609</v>
       </c>
       <c r="I8">
-        <v>0.3564200560729107</v>
+        <v>0.02053331770470026</v>
       </c>
       <c r="J8">
-        <v>0.3564200560729107</v>
+        <v>0.02053331770470026</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1795943333333333</v>
+        <v>2.613621</v>
       </c>
       <c r="N8">
-        <v>0.538783</v>
+        <v>7.840863</v>
       </c>
       <c r="O8">
-        <v>0.03598076077134553</v>
+        <v>0.4199754212870037</v>
       </c>
       <c r="P8">
-        <v>0.03598076077134554</v>
+        <v>0.4199754212870037</v>
       </c>
       <c r="Q8">
-        <v>1.156682033150778</v>
+        <v>0.9135555010630001</v>
       </c>
       <c r="R8">
-        <v>10.410138298357</v>
+        <v>8.221999509567</v>
       </c>
       <c r="S8">
-        <v>0.01282426477166896</v>
+        <v>0.008623488753451383</v>
       </c>
       <c r="T8">
-        <v>0.01282426477166896</v>
+        <v>0.008623488753451383</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.440526333333334</v>
+        <v>0.3495363333333334</v>
       </c>
       <c r="H9">
-        <v>19.321579</v>
+        <v>1.048609</v>
       </c>
       <c r="I9">
-        <v>0.3564200560729107</v>
+        <v>0.02053331770470026</v>
       </c>
       <c r="J9">
-        <v>0.3564200560729107</v>
+        <v>0.02053331770470026</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.01106233333333333</v>
+        <v>3.430056</v>
       </c>
       <c r="N9">
-        <v>0.033187</v>
+        <v>10.290168</v>
       </c>
       <c r="O9">
-        <v>0.002216279109991674</v>
+        <v>0.551166069463788</v>
       </c>
       <c r="P9">
-        <v>0.002216279109991674</v>
+        <v>0.5511660694637879</v>
       </c>
       <c r="Q9">
-        <v>0.07124724914144445</v>
+        <v>1.198929197368</v>
       </c>
       <c r="R9">
-        <v>0.641225242273</v>
+        <v>10.790362776312</v>
       </c>
       <c r="S9">
-        <v>0.0007899263246564531</v>
+        <v>0.01131726801235085</v>
       </c>
       <c r="T9">
-        <v>0.0007899263246564531</v>
+        <v>0.01131726801235085</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,51 +1033,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.216374</v>
+        <v>0.3495363333333334</v>
       </c>
       <c r="H10">
-        <v>0.6491220000000001</v>
+        <v>1.048609</v>
       </c>
       <c r="I10">
-        <v>0.01197418180150597</v>
+        <v>0.02053331770470026</v>
       </c>
       <c r="J10">
-        <v>0.01197418180150597</v>
+        <v>0.02053331770470026</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>1.370686333333333</v>
+        <v>0.1795943333333333</v>
       </c>
       <c r="N10">
-        <v>4.112059</v>
+        <v>0.538783</v>
       </c>
       <c r="O10">
-        <v>0.2746096501869182</v>
+        <v>0.02885850924920838</v>
       </c>
       <c r="P10">
-        <v>0.2746096501869182</v>
+        <v>0.02885850924920838</v>
       </c>
       <c r="Q10">
-        <v>0.2965808846886667</v>
+        <v>0.06277474476077778</v>
       </c>
       <c r="R10">
-        <v>2.669227962198001</v>
+        <v>0.5649727028470001</v>
       </c>
       <c r="S10">
-        <v>0.003288225875786116</v>
+        <v>0.0005925609388980265</v>
       </c>
       <c r="T10">
-        <v>0.003288225875786117</v>
+        <v>0.0005925609388980265</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.216374</v>
+        <v>5.888867</v>
       </c>
       <c r="H11">
-        <v>0.6491220000000001</v>
+        <v>17.666601</v>
       </c>
       <c r="I11">
-        <v>0.01197418180150597</v>
+        <v>0.3459382201518156</v>
       </c>
       <c r="J11">
-        <v>0.01197418180150597</v>
+        <v>0.3459382201518156</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,33 +1113,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.430056</v>
+        <v>2.613621</v>
       </c>
       <c r="N11">
-        <v>10.290168</v>
+        <v>7.840863</v>
       </c>
       <c r="O11">
-        <v>0.6871933099317445</v>
+        <v>0.4199754212870037</v>
       </c>
       <c r="P11">
-        <v>0.6871933099317445</v>
+        <v>0.4199754212870037</v>
       </c>
       <c r="Q11">
-        <v>0.7421749369440002</v>
+        <v>15.391266457407</v>
       </c>
       <c r="R11">
-        <v>6.679574432496</v>
+        <v>138.521398116663</v>
       </c>
       <c r="S11">
-        <v>0.008228577625901349</v>
+        <v>0.145285549747535</v>
       </c>
       <c r="T11">
-        <v>0.008228577625901349</v>
+        <v>0.145285549747535</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,51 +1157,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.216374</v>
+        <v>5.888867</v>
       </c>
       <c r="H12">
-        <v>0.6491220000000001</v>
+        <v>17.666601</v>
       </c>
       <c r="I12">
-        <v>0.01197418180150597</v>
+        <v>0.3459382201518156</v>
       </c>
       <c r="J12">
-        <v>0.01197418180150597</v>
+        <v>0.3459382201518156</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1795943333333333</v>
+        <v>3.430056</v>
       </c>
       <c r="N12">
-        <v>0.538783</v>
+        <v>10.290168</v>
       </c>
       <c r="O12">
-        <v>0.03598076077134553</v>
+        <v>0.551166069463788</v>
       </c>
       <c r="P12">
-        <v>0.03598076077134554</v>
+        <v>0.5511660694637879</v>
       </c>
       <c r="Q12">
-        <v>0.03885954428066667</v>
+        <v>20.199143586552</v>
       </c>
       <c r="R12">
-        <v>0.3497358985260001</v>
+        <v>181.792292278968</v>
       </c>
       <c r="S12">
-        <v>0.0004308401708325856</v>
+        <v>0.1906694090783748</v>
       </c>
       <c r="T12">
-        <v>0.0004308401708325857</v>
+        <v>0.1906694090783748</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,7 +1210,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.216374</v>
+        <v>5.888867</v>
       </c>
       <c r="H13">
-        <v>0.6491220000000001</v>
+        <v>17.666601</v>
       </c>
       <c r="I13">
-        <v>0.01197418180150597</v>
+        <v>0.3459382201518156</v>
       </c>
       <c r="J13">
-        <v>0.01197418180150597</v>
+        <v>0.3459382201518156</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,276 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.01106233333333333</v>
+        <v>0.1795943333333333</v>
       </c>
       <c r="N13">
-        <v>0.033187</v>
+        <v>0.538783</v>
       </c>
       <c r="O13">
-        <v>0.002216279109991674</v>
+        <v>0.02885850924920838</v>
       </c>
       <c r="P13">
-        <v>0.002216279109991674</v>
+        <v>0.02885850924920838</v>
       </c>
       <c r="Q13">
-        <v>0.002393601312666667</v>
+        <v>1.057607142953667</v>
       </c>
       <c r="R13">
-        <v>0.021542411814</v>
+        <v>9.518464286583001</v>
       </c>
       <c r="S13">
-        <v>2.653812898592016E-05</v>
+        <v>0.009983261325905855</v>
       </c>
       <c r="T13">
-        <v>2.653812898592016E-05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>4.846355333333333</v>
-      </c>
-      <c r="H14">
-        <v>14.539066</v>
-      </c>
-      <c r="I14">
-        <v>0.2681983040292798</v>
-      </c>
-      <c r="J14">
-        <v>0.2681983040292799</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>1.370686333333333</v>
-      </c>
-      <c r="N14">
-        <v>4.112059</v>
-      </c>
-      <c r="O14">
-        <v>0.2746096501869182</v>
-      </c>
-      <c r="P14">
-        <v>0.2746096501869182</v>
-      </c>
-      <c r="Q14">
-        <v>6.642833021877112</v>
-      </c>
-      <c r="R14">
-        <v>59.78549719689401</v>
-      </c>
-      <c r="S14">
-        <v>0.07364984245020526</v>
-      </c>
-      <c r="T14">
-        <v>0.07364984245020528</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>4.846355333333333</v>
-      </c>
-      <c r="H15">
-        <v>14.539066</v>
-      </c>
-      <c r="I15">
-        <v>0.2681983040292798</v>
-      </c>
-      <c r="J15">
-        <v>0.2681983040292799</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>3.430056</v>
-      </c>
-      <c r="N15">
-        <v>10.290168</v>
-      </c>
-      <c r="O15">
-        <v>0.6871933099317445</v>
-      </c>
-      <c r="P15">
-        <v>0.6871933099317445</v>
-      </c>
-      <c r="Q15">
-        <v>16.623270189232</v>
-      </c>
-      <c r="R15">
-        <v>149.609431703088</v>
-      </c>
-      <c r="S15">
-        <v>0.1843040802639611</v>
-      </c>
-      <c r="T15">
-        <v>0.1843040802639612</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>4.846355333333333</v>
-      </c>
-      <c r="H16">
-        <v>14.539066</v>
-      </c>
-      <c r="I16">
-        <v>0.2681983040292798</v>
-      </c>
-      <c r="J16">
-        <v>0.2681983040292799</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.1795943333333333</v>
-      </c>
-      <c r="N16">
-        <v>0.538783</v>
-      </c>
-      <c r="O16">
-        <v>0.03598076077134553</v>
-      </c>
-      <c r="P16">
-        <v>0.03598076077134554</v>
-      </c>
-      <c r="Q16">
-        <v>0.8703779551864445</v>
-      </c>
-      <c r="R16">
-        <v>7.833401596678001</v>
-      </c>
-      <c r="S16">
-        <v>0.009649979016558112</v>
-      </c>
-      <c r="T16">
-        <v>0.009649979016558115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>4.846355333333333</v>
-      </c>
-      <c r="H17">
-        <v>14.539066</v>
-      </c>
-      <c r="I17">
-        <v>0.2681983040292798</v>
-      </c>
-      <c r="J17">
-        <v>0.2681983040292799</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.01106233333333333</v>
-      </c>
-      <c r="N17">
-        <v>0.033187</v>
-      </c>
-      <c r="O17">
-        <v>0.002216279109991674</v>
-      </c>
-      <c r="P17">
-        <v>0.002216279109991674</v>
-      </c>
-      <c r="Q17">
-        <v>0.05361199814911111</v>
-      </c>
-      <c r="R17">
-        <v>0.482507983342</v>
-      </c>
-      <c r="S17">
-        <v>0.0005944022985552887</v>
-      </c>
-      <c r="T17">
-        <v>0.0005944022985552888</v>
+        <v>0.009983261325905855</v>
       </c>
     </row>
   </sheetData>
